--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value747.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value747.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>-1</v>
+        <v>0.8275113105773926</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>1.265702128410339</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>0.9972044123914476</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>0.6912751473454798</v>
+        <v>1.498253703117371</v>
       </c>
     </row>
   </sheetData>
